--- a/sql.xlsx
+++ b/sql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workpalce\blog-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE95194-D04E-4A7B-92EC-83732374EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991D41D-26D6-48A3-8F40-E4CF3C58088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>列名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息最后修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文章id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,18 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文章分类id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评论表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click_times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评论id，主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,14 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replay_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回复内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +284,70 @@
   </si>
   <si>
     <t>回复谁的评论，评论id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份信息最后修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,11 +432,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,12 +737,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -737,13 +760,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -754,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -810,64 +833,64 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -885,376 +908,468 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>3</v>
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>71</v>
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>73</v>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
